--- a/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="JSTV220_00.00.72.40.CBSPP_24062" sheetId="1" r:id="rId1"/>
     <sheet name="JMSD200A_23.1.11_24062025" sheetId="2" r:id="rId2"/>
+    <sheet name="JSTV210_00.00.43.08-AppCert-YTS" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:J16"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
   <si>
     <t>DeviceName</t>
   </si>
@@ -110,12 +111,16 @@
   </si>
   <si>
     <t>piku</t>
+  </si>
+  <si>
+    <t>JSTV210_00.00.43.08-AppCert-YTS-Jun17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,51 +474,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -532,395 +537,456 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.08984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="33.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.17578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.17578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.1171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.11328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.10546875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
     <t>DeviceName</t>
   </si>
@@ -529,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -537,12 +537,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.453125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.48828125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.41796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -923,6 +923,66 @@
       </c>
       <c r="F19" t="s" s="0">
         <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -938,12 +998,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.17578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.11328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.96484375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.17578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.11328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
   <si>
     <t>DeviceName</t>
   </si>
@@ -529,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -982,6 +982,46 @@
         <v>10</v>
       </c>
       <c r="F22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>21</v>
       </c>
     </row>

--- a/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
@@ -11,6 +11,7 @@
     <sheet name="JSTV220_00.00.72.40.CBSPP_24062" sheetId="1" r:id="rId1"/>
     <sheet name="JMSD200A_23.1.11_24062025" sheetId="2" r:id="rId2"/>
     <sheet name="JSTV210_00.00.43.08-AppCert-YTS" r:id="rId6" sheetId="3"/>
+    <sheet name="JHSD200_11.2.28_24062025" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:J16"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="33">
   <si>
     <t>DeviceName</t>
   </si>
@@ -114,6 +115,9 @@
   </si>
   <si>
     <t>JSTV210_00.00.43.08-AppCert-YTS-Jun17</t>
+  </si>
+  <si>
+    <t>JHSD200_11.2.28</t>
   </si>
 </sst>
 </file>
@@ -1089,4 +1093,185 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.11328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/24062025/ExcelResults.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{29A261CC-8FEF-41C8-8779-3D347195B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18BE9768-B661-42C8-B255-4CE6EA7F9438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSTV220_00.00.72.40.CBSPP_24062" sheetId="1" r:id="rId1"/>
     <sheet name="JMSD200A_23.1.11_24062025" sheetId="2" r:id="rId2"/>
-    <sheet name="JSTV210_00.00.43.08-AppCert-YTS" r:id="rId6" sheetId="3"/>
-    <sheet name="JHSD200_11.2.28_24062025" r:id="rId7" sheetId="4"/>
+    <sheet name="JSTV210_00.00.43.08-AppCert-YTS" sheetId="3" r:id="rId3"/>
+    <sheet name="JHSD200_11.2.28_24062025" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:J16"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="38">
   <si>
     <t>DeviceName</t>
   </si>
@@ -118,13 +118,27 @@
   </si>
   <si>
     <t>JHSD200_11.2.28</t>
+  </si>
+  <si>
+    <t>src_fmt = invaild</t>
+  </si>
+  <si>
+    <t>NA NA</t>
+  </si>
+  <si>
+    <t>pani</t>
+  </si>
+  <si>
+    <t>Kankhajura</t>
+  </si>
+  <si>
+    <t>1280 720</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,51 +492,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -535,497 +549,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.48828125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.41796875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s" s="0">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s" s="0">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s" s="0">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s" s="0">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s" s="0">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s" s="0">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s" s="0">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s" s="0">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1035,243 +1049,745 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.96484375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.17578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.11328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.11328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>